--- a/DATA_goal/Junction_Flooding_399.xlsx
+++ b/DATA_goal/Junction_Flooding_399.xlsx
@@ -446,7 +446,7 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -863,103 +863,103 @@
         <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.65</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.33</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.51</v>
+        <v>55.13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="W5" s="4" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="X5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_399.xlsx
+++ b/DATA_goal/Junction_Flooding_399.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45080.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>21.139</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>14.405</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.093</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>44.473</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>36.592</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>16.635</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>54.157</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>25.596</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>10.793</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>16.568</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>17.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>18.451</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.311</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>16.542</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>23.194</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>13.966</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.726</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.455</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>244.445</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>46.035</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>15.269</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>30.403</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>15.788</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>26.878</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>13.487</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>12.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>14.251</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>18.232</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>47.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>8.427</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45080.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>12.011</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>8.323</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>25.537</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>21.012</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>9.452</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>38.489</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>6.213</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>9.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>10.304</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>10.705</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>3.021</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>13.209</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>8.148999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.571</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.945</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>135.752</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>26.38</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>17.377</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>9.237</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>1.558</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>18.183</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>6.995</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>8.182</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>10.692</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>34.997</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45080.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.12</v>
+        <v>0.379</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.12</v>
+        <v>0.173</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.786</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.679</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.69</v>
+        <v>0.192</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.32</v>
+        <v>8.196999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.37</v>
+        <v>0.582</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.248</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.066</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.303</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.614</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.613</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.309</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.632</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.75</v>
+        <v>1.022</v>
       </c>
       <c r="X4" s="4" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>3.283</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>7.976</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="AH4" s="4" t="n">
         <v>0.46</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45080.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.23</v>
+        <v>8.56</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.2</v>
+        <v>6.35</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.84</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.28</v>
+        <v>18.55</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>15.04</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.63</v>
+        <v>6.97</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.41</v>
+        <v>23.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.58</v>
+        <v>10.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.84</v>
+        <v>4.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.22</v>
+        <v>6.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.44</v>
+        <v>7.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.65</v>
+        <v>7.69</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.51</v>
+        <v>2.07</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.33</v>
+        <v>6.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.83</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.16</v>
+        <v>5.86</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.13</v>
+        <v>96.06999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.86</v>
+        <v>18.7</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.86</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.27</v>
+        <v>12.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.88</v>
+        <v>6.69</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.62</v>
+        <v>1.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.91</v>
+        <v>11.14</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.32</v>
+        <v>5.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.23</v>
+        <v>4.94</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.21</v>
+        <v>5.8</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.36</v>
+        <v>7.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.24</v>
+        <v>20.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.67</v>
+        <v>3.44</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.87</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_399.xlsx
+++ b/DATA_goal/Junction_Flooding_399.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45080.50694444445</v>
+        <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.139</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.405</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.093</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.473</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.592</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.635</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>54.157</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.596</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.793</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.568</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.656</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.451</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.311</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.542</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.194</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.966</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.726</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.455</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>244.445</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.035</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.269</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.403</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.788</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.878</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.487</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.177</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.251</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.232</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>47.882</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.427</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45080.51388888889</v>
+        <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.011</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.323</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25.537</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.012</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.452</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>38.489</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.543</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.213</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.34</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.304</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.705</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.021</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.209</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.148999999999999</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.571</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.945</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>135.752</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>26.38</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.676</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.377</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.237</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.558</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.183</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.663</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.182</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.692</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>34.997</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45080.52083333334</v>
+        <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.379</v>
+        <v>1.116</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.173</v>
+        <v>1.115</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.786</v>
+        <v>0.804</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.679</v>
+        <v>1.395</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.192</v>
+        <v>1.692</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.196999999999999</v>
+        <v>1.317</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.582</v>
+        <v>1.365</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.248</v>
+        <v>0.488</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.066</v>
+        <v>0.574</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.303</v>
+        <v>0.474</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.602</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.376</v>
+        <v>1.022</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.614</v>
+        <v>0.993</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.613</v>
+        <v>0.326</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.171</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.309</v>
+        <v>0.866</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>2.983</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.632</v>
+        <v>1.213</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.347</v>
+        <v>0.639</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.022</v>
+        <v>0.752</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.457</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.309</v>
+        <v>0.317</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.283</v>
+        <v>0.785</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.307</v>
+        <v>0.485</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.407</v>
+        <v>0.993</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.426</v>
+        <v>0.201</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.281</v>
+        <v>2.019</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.783</v>
+        <v>1.26</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>7.976</v>
+        <v>1.738</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.046</v>
+        <v>1.192</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45080.52777777778</v>
+        <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.56</v>
+        <v>5.229</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.35</v>
+        <v>4.199</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.533</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.55</v>
+        <v>11.281</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.04</v>
+        <v>9.366</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.97</v>
+        <v>3.634</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.23</v>
+        <v>11.414</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.47</v>
+        <v>6.583</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.5</v>
+        <v>2.845</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.76</v>
+        <v>4.219</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.47</v>
+        <v>4.44</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.69</v>
+        <v>4.649</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.07</v>
+        <v>1.507</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.77</v>
+        <v>4.325</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>5.826</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.86</v>
+        <v>3.156</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.135</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.739</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>96.06999999999999</v>
+        <v>55.135</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.7</v>
+        <v>10.855</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.25</v>
+        <v>3.863</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.35</v>
+        <v>7.266</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.69</v>
+        <v>3.884</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.616</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.14</v>
+        <v>5.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.52</v>
+        <v>3.32</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.94</v>
+        <v>3.227</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.8</v>
+        <v>3.21</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.84</v>
+        <v>5.361</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.729</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.63</v>
+        <v>10.235</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.44</v>
+        <v>2.672</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.81</v>
+        <v>4.542</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.87</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_399.xlsx
+++ b/DATA_goal/Junction_Flooding_399.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45080.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>21.139</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>14.405</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.093</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>44.473</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>36.592</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>16.635</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>54.157</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>25.596</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>10.793</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>16.568</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>17.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>18.451</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>5.311</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>16.542</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>23.194</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>13.966</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.726</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.455</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>244.445</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>46.035</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>15.269</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>30.403</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>15.788</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>26.878</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>13.487</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>12.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>14.251</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>18.232</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>47.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>8.427</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45080.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>12.011</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>8.323</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>25.537</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>21.012</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>9.452</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>38.489</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>6.213</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>9.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>10.304</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>10.705</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>3.021</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>13.209</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>8.148999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.571</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.945</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>135.752</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>26.38</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>17.377</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>9.237</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>1.558</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>18.183</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>6.995</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>8.182</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>10.692</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>34.997</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45080.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.116</v>
+        <v>0.379</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.115</v>
+        <v>0.173</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.804</v>
+        <v>0.786</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.395</v>
+        <v>0.679</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.692</v>
+        <v>0.192</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.317</v>
+        <v>8.196999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.365</v>
+        <v>0.582</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.488</v>
+        <v>0.248</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.574</v>
+        <v>0.066</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.474</v>
+        <v>0.303</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.495</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.602</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>1.022</v>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.326</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.866</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>2.983</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.213</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.752</v>
-      </c>
       <c r="X4" s="4" t="n">
-        <v>0.457</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.317</v>
+        <v>0.309</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.785</v>
+        <v>3.283</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.485</v>
+        <v>0.307</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.993</v>
+        <v>0.407</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.201</v>
+        <v>0.426</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.019</v>
+        <v>0.281</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>1.26</v>
+        <v>0.783</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.738</v>
+        <v>7.976</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.192</v>
+        <v>0.046</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.519</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45080.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.229</v>
+        <v>8.56</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.199</v>
+        <v>6.35</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.533</v>
+        <v>0.84</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.281</v>
+        <v>18.55</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.366</v>
+        <v>15.04</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.634</v>
+        <v>6.97</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.414</v>
+        <v>23.23</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.583</v>
+        <v>10.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.845</v>
+        <v>4.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.219</v>
+        <v>6.76</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.44</v>
+        <v>7.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.649</v>
+        <v>7.69</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.507</v>
+        <v>2.07</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.325</v>
+        <v>6.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.826</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.156</v>
+        <v>5.86</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.135</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.739</v>
+        <v>0.46</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.135</v>
+        <v>96.06999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.855</v>
+        <v>18.7</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.863</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.266</v>
+        <v>12.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.884</v>
+        <v>6.69</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.616</v>
+        <v>1.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.91</v>
+        <v>11.14</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.32</v>
+        <v>5.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.227</v>
+        <v>4.94</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.21</v>
+        <v>5.8</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.361</v>
+        <v>7.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.729</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.235</v>
+        <v>20.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.672</v>
+        <v>3.44</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.542</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.87</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>
